--- a/info_texts.xlsx
+++ b/info_texts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579321F6-46C3-E249-A241-EBC62A04524E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AAEFE0-0D65-5742-BAC4-9D37B534CA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11120" yWindow="4820" windowWidth="14500" windowHeight="11280" xr2:uid="{9643FF7B-6686-614E-96EC-B611FAE21EE5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Endometritis</t>
   </si>
@@ -63,6 +63,30 @@
   </si>
   <si>
     <t>Treatment is indicated if the afterbirth has not been expelled more than 3 hours after delivery. Penicillin &amp; Gentamicin should not be administered together intrauterinely; either/or, or alternating application. Penicillin &amp; Aminoglycosides (Gentamicin, Amikacin) should not be in the same syringe. Systemic antibiotics in combination with intrauterine installation of an antibiotic after flushing the uterus with Ringer's lactate or similar.</t>
+  </si>
+  <si>
+    <t>Mastitis</t>
+  </si>
+  <si>
+    <t>Frequent combinations of antibiotics: Penicillin &amp; Gentamicin (systemic &amp; intramammary), Trimethoprim / Sulfonamid systemic or Penicillin / Neomycin / Trimethoprim / Sulfonamid. Udder injectors can be repurposed from farm animal medicine.</t>
+  </si>
+  <si>
+    <t>Caution: inpatient monitoring recommended.</t>
+  </si>
+  <si>
+    <t>Inpatient</t>
+  </si>
+  <si>
+    <t>Clean elective procedures</t>
+  </si>
+  <si>
+    <t>Contaminated procedures</t>
+  </si>
+  <si>
+    <t>Recommended duration of antibiotics for clean, short elective surgical procedures with more than one person present is 24 hours.</t>
+  </si>
+  <si>
+    <t>Recommended duration of antibiotics for contaminated surgical procedures with more than one person present is 5 days.</t>
   </si>
 </sst>
 </file>
@@ -119,7 +143,15 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -438,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B1029C-1568-6341-84D3-029CCB02C6D4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,6 +515,38 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info_texts.xlsx
+++ b/info_texts.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AAEFE0-0D65-5742-BAC4-9D37B534CA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63281F2B-11F7-AB4E-B313-8FB2D63049C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11120" yWindow="4820" windowWidth="14500" windowHeight="11280" xr2:uid="{9643FF7B-6686-614E-96EC-B611FAE21EE5}"/>
+    <workbookView xWindow="7380" yWindow="3520" windowWidth="18240" windowHeight="12580" xr2:uid="{9643FF7B-6686-614E-96EC-B611FAE21EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,24 +144,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -472,8 +456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B1029C-1568-6341-84D3-029CCB02C6D4}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/info_texts.xlsx
+++ b/info_texts.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Code/CDSS Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63281F2B-11F7-AB4E-B313-8FB2D63049C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14D2817-91DC-4F66-80CF-735DDA241A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="3520" windowWidth="18240" windowHeight="12580" xr2:uid="{9643FF7B-6686-614E-96EC-B611FAE21EE5}"/>
+    <workbookView xWindow="37830" yWindow="12090" windowWidth="11750" windowHeight="10690" xr2:uid="{9643FF7B-6686-614E-96EC-B611FAE21EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Endometritis</t>
   </si>
@@ -88,6 +87,12 @@
   </si>
   <si>
     <t>Recommended duration of antibiotics for contaminated surgical procedures with more than one person present is 5 days.</t>
+  </si>
+  <si>
+    <t>Contaminated Limb Wounds with Synovial Involvement</t>
+  </si>
+  <si>
+    <t>First-line antibiotic for intraarticulary application is Amikacin. Additional alternative antibiotics can be determined with an antibiogram, and possibly applied as an intravenous regional antibiosis.</t>
   </si>
 </sst>
 </file>
@@ -142,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -158,9 +163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +203,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -304,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,21 +459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B1029C-1568-6341-84D3-029CCB02C6D4}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="51.6875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -476,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="167" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -492,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="126" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -500,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="78.75" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -508,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -516,7 +521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -524,12 +529,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/info_texts.xlsx
+++ b/info_texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboen\Documents\Repositories\CDSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14D2817-91DC-4F66-80CF-735DDA241A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4EFC3E-5C3D-4696-8DB3-2334815AB643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37830" yWindow="12090" windowWidth="11750" windowHeight="10690" xr2:uid="{9643FF7B-6686-614E-96EC-B611FAE21EE5}"/>
+    <workbookView xWindow="102510" yWindow="5010" windowWidth="25650" windowHeight="19770" xr2:uid="{9643FF7B-6686-614E-96EC-B611FAE21EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -462,18 +462,18 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.6875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8125" style="1"/>
+    <col min="2" max="2" width="51.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="167" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="167" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -497,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="126" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" ht="124" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -513,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -521,7 +521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -529,7 +529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -537,7 +537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
